--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6A960-FF05-43A4-8D65-DEF80F9A7D1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F5FAFA-20B5-4F82-BAE4-5BDD15721C2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -846,8 +846,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/3U4U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F5FAFA-20B5-4F82-BAE4-5BDD15721C2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C0E017-1ECC-4A42-BAA9-882543F1C7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>104</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>116</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>11</v>
